--- a/Regional_References/name_mapping.xlsx
+++ b/Regional_References/name_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A654219\Documents\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A654219\Documents\GA\Regional_References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952EC6D-E16B-49CE-BC29-0CF6EEA4AF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A667BF-C8C0-44B6-B5B2-C364B768C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEC0AB52-3D8D-4D79-8F35-2AC22878C9CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Short Carrier</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>HIOS_ID</t>
+  </si>
+  <si>
+    <t>Aetna Health Inc.</t>
+  </si>
+  <si>
+    <t>Aetna Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield Healthcare Plan of Georgia, Inc.</t>
+  </si>
+  <si>
+    <t>Cigna + Oscar</t>
+  </si>
+  <si>
+    <t>UHC of RV</t>
+  </si>
+  <si>
+    <t>UnitedHealthcare of the River Valley</t>
+  </si>
+  <si>
+    <t>UHC of GA</t>
+  </si>
+  <si>
+    <t>UnitedHealthcare of Georgia</t>
+  </si>
+  <si>
+    <t>UHC</t>
+  </si>
+  <si>
+    <t>UnitedHealthcare Insurance Company</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Health Plan</t>
   </si>
 </sst>
 </file>
@@ -463,17 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F840AC95-8B0B-4958-AB7C-8F049E0BC47F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -586,6 +619,105 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>82824</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>83978</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>49046</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>50491</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>30552</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43802</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13535</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>89942</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>82302</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
